--- a/template-utils-core/src/test/resources/templates/integrationtests/conditions/vintage/conditions_v11.xlsx
+++ b/template-utils-core/src/test/resources/templates/integrationtests/conditions/vintage/conditions_v11.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="96" yWindow="108" windowWidth="19140" windowHeight="9552"/>
   </bookViews>
@@ -18,10 +18,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Levente</author>
+    <author>Szerző</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +32,7 @@
             <family val="2"/>
             <charset val="238"/>
           </rPr>
-          <t>Levente:</t>
+          <t>Szerző:</t>
         </r>
         <r>
           <rPr>
@@ -52,10 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Contract</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Contractor</t>
   </si>
@@ -79,12 +76,42 @@
   </si>
   <si>
     <t>${ctx['contract'].contractor.birthDate}</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Contract conditions</t>
+  </si>
+  <si>
+    <t>Non-benefiary calls</t>
+  </si>
+  <si>
+    <t>Weekdays</t>
+  </si>
+  <si>
+    <t>HUF</t>
+  </si>
+  <si>
+    <t>Benefiary calls</t>
+  </si>
+  <si>
+    <t>Everyday</t>
+  </si>
+  <si>
+    <t>00:00-23:59</t>
+  </si>
+  <si>
+    <t>16:00-07:59</t>
+  </si>
+  <si>
+    <t>08:00-15:59</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,6 +190,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -210,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,7 +275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,54 +484,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -525,6 +607,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -537,5 +620,6 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>